--- a/01_Paradigms/ER-ED/ER_ED/Trials/StimuliNegative_5.xlsx
+++ b/01_Paradigms/ER-ED/ER_ED/Trials/StimuliNegative_5.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scheffel\Scheffel\Forschung\A_Projects\2021_COG-ER-ED\COG-ER-ED\01_Paradigms\ER-ED\ER_ED\Stimuli\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scheffel\Scheffel\Forschung\A_Projects\2021_CERED\CAD\01_Paradigms\ER-ED\ER_ED\Trials\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17376" windowHeight="4872"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17370" windowHeight="4875"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="8">
   <si>
     <t>ImageFile</t>
   </si>
@@ -45,61 +45,10 @@
     <t>Stimuli/223.jpg</t>
   </si>
   <si>
-    <t>Stimuli/3016.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/3101.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/6571.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/9402.jpg</t>
-  </si>
-  <si>
     <t>Stimuli/238.jpg</t>
   </si>
   <si>
     <t>Stimuli/245.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/2981.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/3181.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/3215.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/3220.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/3225.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/6020.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/6831.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/8231.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/9373.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/9400.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/9403.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/9405.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/9423.jpg</t>
   </si>
 </sst>
 </file>
@@ -419,120 +368,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+      <selection activeCell="A5" sqref="A5:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -548,9 +412,9 @@
       <selection activeCell="E2" sqref="E2:E101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -565,7 +429,7 @@
         <v>Stimuli/234.jpg</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -580,7 +444,7 @@
         <v>Stimuli/248.jpg</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -595,7 +459,7 @@
         <v>Stimuli/3068.jpg</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -610,7 +474,7 @@
         <v>Stimuli/3069.jpg</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -625,7 +489,7 @@
         <v>Stimuli/3181.jpg</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -640,7 +504,7 @@
         <v>Stimuli/3225.jpg</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -655,7 +519,7 @@
         <v>Stimuli/3266.jpg</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -670,7 +534,7 @@
         <v>Stimuli/3400.jpg</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -685,7 +549,7 @@
         <v>Stimuli/3550.jpg</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -700,7 +564,7 @@
         <v>Stimuli/6350.jpg</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
@@ -715,7 +579,7 @@
         <v>Stimuli/6520.jpg</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
@@ -730,7 +594,7 @@
         <v>Stimuli/8485.jpg</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -745,7 +609,7 @@
         <v>Stimuli/9040.jpg</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
@@ -760,7 +624,7 @@
         <v>Stimuli/9140.jpg</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,7 +639,7 @@
         <v>Stimuli/9163.jpg</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
@@ -790,7 +654,7 @@
         <v>Stimuli/9181.jpg</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
@@ -805,7 +669,7 @@
         <v>Stimuli/9182.jpg</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
@@ -820,7 +684,7 @@
         <v>Stimuli/9183.jpg</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
@@ -835,7 +699,7 @@
         <v>Stimuli/9325.jpg</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>3</v>
       </c>
@@ -850,7 +714,7 @@
         <v>Stimuli/9414.jpg</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
@@ -865,7 +729,7 @@
         <v>Stimuli/9419.jpg</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
@@ -880,7 +744,7 @@
         <v>Stimuli/9424.jpg</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
@@ -895,7 +759,7 @@
         <v>Stimuli/9480.jpg</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
@@ -910,7 +774,7 @@
         <v>Stimuli/9635.1.jpg</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>3</v>
       </c>
@@ -925,7 +789,7 @@
         <v>Stimuli/9904.jpg</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>3</v>
       </c>
@@ -940,7 +804,7 @@
         <v>Stimuli/237.jpg</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>3</v>
       </c>
@@ -955,7 +819,7 @@
         <v>Stimuli/239.jpg</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
@@ -970,7 +834,7 @@
         <v>Stimuli/240.jpg</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>3</v>
       </c>
@@ -985,7 +849,7 @@
         <v>Stimuli/247.jpg</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>3</v>
       </c>
@@ -1000,7 +864,7 @@
         <v>Stimuli/1111.jpg</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>3</v>
       </c>
@@ -1015,7 +879,7 @@
         <v>Stimuli/1280.jpg</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>3</v>
       </c>
@@ -1030,7 +894,7 @@
         <v>Stimuli/3000.jpg</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>3</v>
       </c>
@@ -1045,7 +909,7 @@
         <v>Stimuli/3015.jpg</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>3</v>
       </c>
@@ -1060,7 +924,7 @@
         <v>Stimuli/3030.jpg</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>3</v>
       </c>
@@ -1075,7 +939,7 @@
         <v>Stimuli/3051.jpg</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>3</v>
       </c>
@@ -1090,7 +954,7 @@
         <v>Stimuli/3063.jpg</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>3</v>
       </c>
@@ -1105,7 +969,7 @@
         <v>Stimuli/3150.jpg</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>3</v>
       </c>
@@ -1120,7 +984,7 @@
         <v>Stimuli/3180.jpg</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>3</v>
       </c>
@@ -1135,7 +999,7 @@
         <v>Stimuli/3301.jpg</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>3</v>
       </c>
@@ -1150,7 +1014,7 @@
         <v>Stimuli/6313.jpg</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>3</v>
       </c>
@@ -1165,7 +1029,7 @@
         <v>Stimuli/6550.jpg</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>3</v>
       </c>
@@ -1180,7 +1044,7 @@
         <v>Stimuli/7361.jpg</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>3</v>
       </c>
@@ -1195,7 +1059,7 @@
         <v>Stimuli/9300.jpg</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>3</v>
       </c>
@@ -1210,7 +1074,7 @@
         <v>Stimuli/9332.jpg</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>3</v>
       </c>
@@ -1225,7 +1089,7 @@
         <v>Stimuli/9400.jpg</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>3</v>
       </c>
@@ -1240,7 +1104,7 @@
         <v>Stimuli/9412.jpg</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>3</v>
       </c>
@@ -1255,7 +1119,7 @@
         <v>Stimuli/9413.jpg</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>3</v>
       </c>
@@ -1270,7 +1134,7 @@
         <v>Stimuli/9530.jpg</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>3</v>
       </c>
@@ -1285,7 +1149,7 @@
         <v>Stimuli/9570.jpg</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>3</v>
       </c>
@@ -1300,7 +1164,7 @@
         <v>Stimuli/9902.jpg</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>3</v>
       </c>
@@ -1315,7 +1179,7 @@
         <v>Stimuli/242.jpg</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>3</v>
       </c>
@@ -1330,7 +1194,7 @@
         <v>Stimuli/252.jpg</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>3</v>
       </c>
@@ -1345,7 +1209,7 @@
         <v>Stimuli/3001.jpg</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>3</v>
       </c>
@@ -1360,7 +1224,7 @@
         <v>Stimuli/3010.jpg</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>3</v>
       </c>
@@ -1375,7 +1239,7 @@
         <v>Stimuli/3060.jpg</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>3</v>
       </c>
@@ -1390,7 +1254,7 @@
         <v>Stimuli/3071.jpg</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>3</v>
       </c>
@@ -1405,7 +1269,7 @@
         <v>Stimuli/3102.jpg</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>3</v>
       </c>
@@ -1420,7 +1284,7 @@
         <v>Stimuli/3140.jpg</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>3</v>
       </c>
@@ -1435,7 +1299,7 @@
         <v>Stimuli/6022.jpg</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>3</v>
       </c>
@@ -1450,7 +1314,7 @@
         <v>Stimuli/6831.jpg</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>3</v>
       </c>
@@ -1465,7 +1329,7 @@
         <v>Stimuli/8230.jpg</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>3</v>
       </c>
@@ -1480,7 +1344,7 @@
         <v>Stimuli/8231.jpg</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>3</v>
       </c>
@@ -1495,7 +1359,7 @@
         <v>Stimuli/9320.jpg</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>3</v>
       </c>
@@ -1510,7 +1374,7 @@
         <v>Stimuli/9410.jpg</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>3</v>
       </c>
@@ -1525,7 +1389,7 @@
         <v>Stimuli/9420.jpg</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>3</v>
       </c>
@@ -1540,7 +1404,7 @@
         <v>Stimuli/9423.jpg</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>3</v>
       </c>
@@ -1555,7 +1419,7 @@
         <v>Stimuli/9427.jpg</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>3</v>
       </c>
@@ -1570,7 +1434,7 @@
         <v>Stimuli/9428.jpg</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>3</v>
       </c>
@@ -1585,7 +1449,7 @@
         <v>Stimuli/9430.jpg</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>3</v>
       </c>
@@ -1600,7 +1464,7 @@
         <v>Stimuli/9500.jpg</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>3</v>
       </c>
@@ -1615,7 +1479,7 @@
         <v>Stimuli/9571.jpg</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>3</v>
       </c>
@@ -1630,7 +1494,7 @@
         <v>Stimuli/9800.jpg</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>3</v>
       </c>
@@ -1645,7 +1509,7 @@
         <v>Stimuli/9908.jpg</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>3</v>
       </c>
@@ -1660,7 +1524,7 @@
         <v>Stimuli/9910.jpg</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>3</v>
       </c>
@@ -1675,7 +1539,7 @@
         <v>Stimuli/9940.jpg</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>3</v>
       </c>
@@ -1690,7 +1554,7 @@
         <v>Stimuli/233.jpg</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>3</v>
       </c>
@@ -1705,7 +1569,7 @@
         <v>Stimuli/236.jpg</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>3</v>
       </c>
@@ -1720,7 +1584,7 @@
         <v>Stimuli/250.jpg</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>3</v>
       </c>
@@ -1735,7 +1599,7 @@
         <v>Stimuli/1300.jpg</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>3</v>
       </c>
@@ -1750,7 +1614,7 @@
         <v>Stimuli/3005.1.jpg</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>3</v>
       </c>
@@ -1765,7 +1629,7 @@
         <v>Stimuli/3053.jpg</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>3</v>
       </c>
@@ -1780,7 +1644,7 @@
         <v>Stimuli/3080.jpg</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>3</v>
       </c>
@@ -1795,7 +1659,7 @@
         <v>Stimuli/3168.jpg</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>3</v>
       </c>
@@ -1810,7 +1674,7 @@
         <v>Stimuli/3170.jpg</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>3</v>
       </c>
@@ -1825,7 +1689,7 @@
         <v>Stimuli/3350.jpg</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>3</v>
       </c>
@@ -1840,7 +1704,7 @@
         <v>Stimuli/3530.jpg</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>3</v>
       </c>
@@ -1855,7 +1719,7 @@
         <v>Stimuli/6212.jpg</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>3</v>
       </c>
@@ -1870,7 +1734,7 @@
         <v>Stimuli/6415.jpg</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>3</v>
       </c>
@@ -1885,7 +1749,7 @@
         <v>Stimuli/9250.jpg</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>3</v>
       </c>
@@ -1900,7 +1764,7 @@
         <v>Stimuli/9253.jpg</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>3</v>
       </c>
@@ -1915,7 +1779,7 @@
         <v>Stimuli/9373.jpg</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>3</v>
       </c>
@@ -1930,7 +1794,7 @@
         <v>Stimuli/9405.jpg</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>3</v>
       </c>
@@ -1945,7 +1809,7 @@
         <v>Stimuli/9421.jpg</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>3</v>
       </c>
@@ -1960,7 +1824,7 @@
         <v>Stimuli/9425.jpg</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>3</v>
       </c>
@@ -1975,7 +1839,7 @@
         <v>Stimuli/9433.jpg</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>3</v>
       </c>
@@ -1990,7 +1854,7 @@
         <v>Stimuli/9490.jpg</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>3</v>
       </c>
@@ -2005,7 +1869,7 @@
         <v>Stimuli/9520.jpg</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>3</v>
       </c>
@@ -2020,7 +1884,7 @@
         <v>Stimuli/9560.jpg</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>3</v>
       </c>
@@ -2035,7 +1899,7 @@
         <v>Stimuli/9599.jpg</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>3</v>
       </c>

--- a/01_Paradigms/ER-ED/ER_ED/Trials/StimuliNegative_5.xlsx
+++ b/01_Paradigms/ER-ED/ER_ED/Trials/StimuliNegative_5.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scheffel\Scheffel\Forschung\A_Projects\2021_CERED\CAD\01_Paradigms\ER-ED\ER_ED\Trials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scheffel\Scheffel\Forschung\A_Projects\2021_COG-ER-ED\COG-ER-ED\01_Paradigms\ER-ED\ER_ED\Stimuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17370" windowHeight="4875"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17376" windowHeight="4872"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="25">
   <si>
     <t>ImageFile</t>
   </si>
@@ -45,10 +45,61 @@
     <t>Stimuli/223.jpg</t>
   </si>
   <si>
+    <t>Stimuli/3016.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/3101.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/6571.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/9402.jpg</t>
+  </si>
+  <si>
     <t>Stimuli/238.jpg</t>
   </si>
   <si>
     <t>Stimuli/245.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/2981.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/3181.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/3215.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/3220.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/3225.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/6020.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/6831.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/8231.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/9373.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/9400.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/9403.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/9405.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/9423.jpg</t>
   </si>
 </sst>
 </file>
@@ -368,35 +419,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD18"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -412,9 +548,9 @@
       <selection activeCell="E2" sqref="E2:E101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -429,7 +565,7 @@
         <v>Stimuli/234.jpg</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -444,7 +580,7 @@
         <v>Stimuli/248.jpg</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -459,7 +595,7 @@
         <v>Stimuli/3068.jpg</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -474,7 +610,7 @@
         <v>Stimuli/3069.jpg</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -489,7 +625,7 @@
         <v>Stimuli/3181.jpg</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -504,7 +640,7 @@
         <v>Stimuli/3225.jpg</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -519,7 +655,7 @@
         <v>Stimuli/3266.jpg</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -534,7 +670,7 @@
         <v>Stimuli/3400.jpg</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -549,7 +685,7 @@
         <v>Stimuli/3550.jpg</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -564,7 +700,7 @@
         <v>Stimuli/6350.jpg</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
@@ -579,7 +715,7 @@
         <v>Stimuli/6520.jpg</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
@@ -594,7 +730,7 @@
         <v>Stimuli/8485.jpg</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -609,7 +745,7 @@
         <v>Stimuli/9040.jpg</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
@@ -624,7 +760,7 @@
         <v>Stimuli/9140.jpg</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
@@ -639,7 +775,7 @@
         <v>Stimuli/9163.jpg</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
@@ -654,7 +790,7 @@
         <v>Stimuli/9181.jpg</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
@@ -669,7 +805,7 @@
         <v>Stimuli/9182.jpg</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
@@ -684,7 +820,7 @@
         <v>Stimuli/9183.jpg</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
@@ -699,7 +835,7 @@
         <v>Stimuli/9325.jpg</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>3</v>
       </c>
@@ -714,7 +850,7 @@
         <v>Stimuli/9414.jpg</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
@@ -729,7 +865,7 @@
         <v>Stimuli/9419.jpg</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
@@ -744,7 +880,7 @@
         <v>Stimuli/9424.jpg</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
@@ -759,7 +895,7 @@
         <v>Stimuli/9480.jpg</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
@@ -774,7 +910,7 @@
         <v>Stimuli/9635.1.jpg</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,7 +925,7 @@
         <v>Stimuli/9904.jpg</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>3</v>
       </c>
@@ -804,7 +940,7 @@
         <v>Stimuli/237.jpg</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>3</v>
       </c>
@@ -819,7 +955,7 @@
         <v>Stimuli/239.jpg</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
@@ -834,7 +970,7 @@
         <v>Stimuli/240.jpg</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>3</v>
       </c>
@@ -849,7 +985,7 @@
         <v>Stimuli/247.jpg</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>3</v>
       </c>
@@ -864,7 +1000,7 @@
         <v>Stimuli/1111.jpg</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>3</v>
       </c>
@@ -879,7 +1015,7 @@
         <v>Stimuli/1280.jpg</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>3</v>
       </c>
@@ -894,7 +1030,7 @@
         <v>Stimuli/3000.jpg</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>3</v>
       </c>
@@ -909,7 +1045,7 @@
         <v>Stimuli/3015.jpg</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>3</v>
       </c>
@@ -924,7 +1060,7 @@
         <v>Stimuli/3030.jpg</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>3</v>
       </c>
@@ -939,7 +1075,7 @@
         <v>Stimuli/3051.jpg</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>3</v>
       </c>
@@ -954,7 +1090,7 @@
         <v>Stimuli/3063.jpg</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>3</v>
       </c>
@@ -969,7 +1105,7 @@
         <v>Stimuli/3150.jpg</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>3</v>
       </c>
@@ -984,7 +1120,7 @@
         <v>Stimuli/3180.jpg</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>3</v>
       </c>
@@ -999,7 +1135,7 @@
         <v>Stimuli/3301.jpg</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>3</v>
       </c>
@@ -1014,7 +1150,7 @@
         <v>Stimuli/6313.jpg</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
         <v>3</v>
       </c>
@@ -1029,7 +1165,7 @@
         <v>Stimuli/6550.jpg</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
         <v>3</v>
       </c>
@@ -1044,7 +1180,7 @@
         <v>Stimuli/7361.jpg</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
         <v>3</v>
       </c>
@@ -1059,7 +1195,7 @@
         <v>Stimuli/9300.jpg</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
         <v>3</v>
       </c>
@@ -1074,7 +1210,7 @@
         <v>Stimuli/9332.jpg</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
         <v>3</v>
       </c>
@@ -1089,7 +1225,7 @@
         <v>Stimuli/9400.jpg</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
         <v>3</v>
       </c>
@@ -1104,7 +1240,7 @@
         <v>Stimuli/9412.jpg</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
         <v>3</v>
       </c>
@@ -1119,7 +1255,7 @@
         <v>Stimuli/9413.jpg</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
         <v>3</v>
       </c>
@@ -1134,7 +1270,7 @@
         <v>Stimuli/9530.jpg</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
         <v>3</v>
       </c>
@@ -1149,7 +1285,7 @@
         <v>Stimuli/9570.jpg</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>3</v>
       </c>
@@ -1164,7 +1300,7 @@
         <v>Stimuli/9902.jpg</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
         <v>3</v>
       </c>
@@ -1179,7 +1315,7 @@
         <v>Stimuli/242.jpg</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
         <v>3</v>
       </c>
@@ -1194,7 +1330,7 @@
         <v>Stimuli/252.jpg</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>3</v>
       </c>
@@ -1209,7 +1345,7 @@
         <v>Stimuli/3001.jpg</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
         <v>3</v>
       </c>
@@ -1224,7 +1360,7 @@
         <v>Stimuli/3010.jpg</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
         <v>3</v>
       </c>
@@ -1239,7 +1375,7 @@
         <v>Stimuli/3060.jpg</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
         <v>3</v>
       </c>
@@ -1254,7 +1390,7 @@
         <v>Stimuli/3071.jpg</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
         <v>3</v>
       </c>
@@ -1269,7 +1405,7 @@
         <v>Stimuli/3102.jpg</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
         <v>3</v>
       </c>
@@ -1284,7 +1420,7 @@
         <v>Stimuli/3140.jpg</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
         <v>3</v>
       </c>
@@ -1299,7 +1435,7 @@
         <v>Stimuli/6022.jpg</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
         <v>3</v>
       </c>
@@ -1314,7 +1450,7 @@
         <v>Stimuli/6831.jpg</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
         <v>3</v>
       </c>
@@ -1329,7 +1465,7 @@
         <v>Stimuli/8230.jpg</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
         <v>3</v>
       </c>
@@ -1344,7 +1480,7 @@
         <v>Stimuli/8231.jpg</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
         <v>3</v>
       </c>
@@ -1359,7 +1495,7 @@
         <v>Stimuli/9320.jpg</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="s">
         <v>3</v>
       </c>
@@ -1374,7 +1510,7 @@
         <v>Stimuli/9410.jpg</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
         <v>3</v>
       </c>
@@ -1389,7 +1525,7 @@
         <v>Stimuli/9420.jpg</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
         <v>3</v>
       </c>
@@ -1404,7 +1540,7 @@
         <v>Stimuli/9423.jpg</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
         <v>3</v>
       </c>
@@ -1419,7 +1555,7 @@
         <v>Stimuli/9427.jpg</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
         <v>3</v>
       </c>
@@ -1434,7 +1570,7 @@
         <v>Stimuli/9428.jpg</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
         <v>3</v>
       </c>
@@ -1449,7 +1585,7 @@
         <v>Stimuli/9430.jpg</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
         <v>3</v>
       </c>
@@ -1464,7 +1600,7 @@
         <v>Stimuli/9500.jpg</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="1" t="s">
         <v>3</v>
       </c>
@@ -1479,7 +1615,7 @@
         <v>Stimuli/9571.jpg</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" s="1" t="s">
         <v>3</v>
       </c>
@@ -1494,7 +1630,7 @@
         <v>Stimuli/9800.jpg</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" s="1" t="s">
         <v>3</v>
       </c>
@@ -1509,7 +1645,7 @@
         <v>Stimuli/9908.jpg</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" s="1" t="s">
         <v>3</v>
       </c>
@@ -1524,7 +1660,7 @@
         <v>Stimuli/9910.jpg</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76" s="1" t="s">
         <v>3</v>
       </c>
@@ -1539,7 +1675,7 @@
         <v>Stimuli/9940.jpg</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="s">
         <v>3</v>
       </c>
@@ -1554,7 +1690,7 @@
         <v>Stimuli/233.jpg</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78" s="1" t="s">
         <v>3</v>
       </c>
@@ -1569,7 +1705,7 @@
         <v>Stimuli/236.jpg</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>3</v>
       </c>
@@ -1584,7 +1720,7 @@
         <v>Stimuli/250.jpg</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80" s="1" t="s">
         <v>3</v>
       </c>
@@ -1599,7 +1735,7 @@
         <v>Stimuli/1300.jpg</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="1" t="s">
         <v>3</v>
       </c>
@@ -1614,7 +1750,7 @@
         <v>Stimuli/3005.1.jpg</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="1" t="s">
         <v>3</v>
       </c>
@@ -1629,7 +1765,7 @@
         <v>Stimuli/3053.jpg</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="1" t="s">
         <v>3</v>
       </c>
@@ -1644,7 +1780,7 @@
         <v>Stimuli/3080.jpg</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="1" t="s">
         <v>3</v>
       </c>
@@ -1659,7 +1795,7 @@
         <v>Stimuli/3168.jpg</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="1" t="s">
         <v>3</v>
       </c>
@@ -1674,7 +1810,7 @@
         <v>Stimuli/3170.jpg</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="1" t="s">
         <v>3</v>
       </c>
@@ -1689,7 +1825,7 @@
         <v>Stimuli/3350.jpg</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="1" t="s">
         <v>3</v>
       </c>
@@ -1704,7 +1840,7 @@
         <v>Stimuli/3530.jpg</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="1" t="s">
         <v>3</v>
       </c>
@@ -1719,7 +1855,7 @@
         <v>Stimuli/6212.jpg</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="1" t="s">
         <v>3</v>
       </c>
@@ -1734,7 +1870,7 @@
         <v>Stimuli/6415.jpg</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="1" t="s">
         <v>3</v>
       </c>
@@ -1749,7 +1885,7 @@
         <v>Stimuli/9250.jpg</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" s="1" t="s">
         <v>3</v>
       </c>
@@ -1764,7 +1900,7 @@
         <v>Stimuli/9253.jpg</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" s="1" t="s">
         <v>3</v>
       </c>
@@ -1779,7 +1915,7 @@
         <v>Stimuli/9373.jpg</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" s="1" t="s">
         <v>3</v>
       </c>
@@ -1794,7 +1930,7 @@
         <v>Stimuli/9405.jpg</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B94" s="1" t="s">
         <v>3</v>
       </c>
@@ -1809,7 +1945,7 @@
         <v>Stimuli/9421.jpg</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B95" s="1" t="s">
         <v>3</v>
       </c>
@@ -1824,7 +1960,7 @@
         <v>Stimuli/9425.jpg</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B96" s="1" t="s">
         <v>3</v>
       </c>
@@ -1839,7 +1975,7 @@
         <v>Stimuli/9433.jpg</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B97" s="1" t="s">
         <v>3</v>
       </c>
@@ -1854,7 +1990,7 @@
         <v>Stimuli/9490.jpg</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B98" s="1" t="s">
         <v>3</v>
       </c>
@@ -1869,7 +2005,7 @@
         <v>Stimuli/9520.jpg</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B99" s="1" t="s">
         <v>3</v>
       </c>
@@ -1884,7 +2020,7 @@
         <v>Stimuli/9560.jpg</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B100" s="1" t="s">
         <v>3</v>
       </c>
@@ -1899,7 +2035,7 @@
         <v>Stimuli/9599.jpg</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B101" s="1" t="s">
         <v>3</v>
       </c>
